--- a/fuentes/contenidos/grado05/guion01/SolicitudGrafica_LE_05_01_REC230.xlsx
+++ b/fuentes/contenidos/grado05/guion01/SolicitudGrafica_LE_05_01_REC230.xlsx
@@ -2297,7 +2297,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2318,7 +2318,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2347,7 +2347,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2356,13 +2356,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="89"/>
-      <c r="F3" s="81"/>
+      <c r="F3" s="81">
+        <v>42073</v>
+      </c>
       <c r="G3" s="82"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>55</v>
@@ -2383,7 +2385,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -2405,7 +2407,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2436,7 +2438,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2456,7 +2458,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26" thickBot="1">
+    <row r="9" spans="1:16" ht="27" thickBot="1">
       <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
@@ -2608,7 +2610,7 @@
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1">
       <c r="A13" s="13" t="str">
-        <f t="shared" ref="A12:A30" si="3">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
+        <f t="shared" ref="A13:A30" si="3">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B13" s="28"/>
@@ -2637,7 +2639,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="14" spans="1:16" s="12" customFormat="1">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2668,7 +2670,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="15" spans="1:16" s="12" customFormat="1">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2699,7 +2701,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="12" customFormat="1">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2730,7 +2732,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="17" spans="1:11" s="12" customFormat="1">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2761,7 +2763,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="18" spans="1:11" s="12" customFormat="1">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2792,7 +2794,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="19" spans="1:11" s="12" customFormat="1">
       <c r="A19" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2823,7 +2825,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="20" spans="1:11" s="12" customFormat="1">
       <c r="A20" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2854,7 +2856,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="21" spans="1:11" s="12" customFormat="1">
       <c r="A21" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2885,7 +2887,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="22" spans="1:11" s="12" customFormat="1">
       <c r="A22" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2916,7 +2918,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2944,7 +2946,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="24" spans="1:11" s="12" customFormat="1">
       <c r="A24" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2972,7 +2974,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3000,7 +3002,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3028,7 +3030,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="A27" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3056,7 +3058,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3084,7 +3086,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3112,7 +3114,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5166,7 +5168,7 @@
     <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5190,7 @@
       <c r="E2" s="99"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="49" t="s">
         <v>44</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="46" t="s">
         <v>45</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>46</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="46" t="s">
         <v>11</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="49" t="s">
         <v>54</v>
       </c>
@@ -5335,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="49" t="s">
         <v>13</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="50" t="s">
         <v>37</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="38" t="s">
         <v>38</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="49"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -5494,7 +5496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="49" t="s">
         <v>49</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="50" t="s">
         <v>52</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="59" customFormat="1" ht="26.5">
+    <row r="7" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A7" s="60" t="s">
         <v>85</v>
       </c>
@@ -6095,7 +6097,7 @@
       </c>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:11" s="59" customFormat="1">
+    <row r="8" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A8" s="60" t="s">
         <v>87</v>
       </c>
@@ -6175,7 +6177,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:11" s="59" customFormat="1" ht="26.5">
+    <row r="11" spans="1:11" s="59" customFormat="1" ht="28">
       <c r="A11" s="60" t="s">
         <v>94</v>
       </c>
@@ -6231,7 +6233,7 @@
       </c>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" spans="1:11" ht="63.25">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="63" t="s">
         <v>98</v>
       </c>
@@ -6282,7 +6284,7 @@
       </c>
       <c r="J14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="31.75">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="63" t="s">
         <v>104</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="65" t="s">
         <v>108</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="60" t="s">
         <v>113</v>
       </c>
@@ -6411,7 +6413,7 @@
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
     </row>
-    <row r="24" spans="1:11" ht="31.75">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="73" t="s">
         <v>129</v>
       </c>
@@ -6437,7 +6439,7 @@
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
-    <row r="26" spans="1:11" ht="63.25">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="73" t="s">
         <v>135</v>
       </c>
